--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sherif\Dell AutomationTask\DellAutomationTask\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sherif\Dell AutomationTask\DellAutomationTask\DellAutomationTask\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5D04B-5551-4226-8C49-C1450514A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2DA78F-0582-4372-9CA1-2CF32B30461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F4403447-99D7-44E9-99C6-50124DD443D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4403447-99D7-44E9-99C6-50124DD443D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_AuthData" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Password</t>
   </si>
@@ -490,18 +490,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DA7258-63E7-41FC-B823-6B673E378529}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -512,49 +512,46 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -565,52 +562,48 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2">
+      <c r="L2" s="2">
         <v>1993</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="O2" s="2">
+        <v>11111</v>
+      </c>
       <c r="P2" s="2">
-        <v>11111</v>
-      </c>
-      <c r="Q2" s="2">
         <v>1001111111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="He7QD#nA!A9E@36T" xr:uid="{0BA103F5-476C-47FD-BA7E-CEF394687619}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{77CAB321-82BA-4995-8B70-AD8E34F42E82}"/>
+    <hyperlink ref="D2" r:id="rId1" display="He7QD#nA!A9E@36T" xr:uid="{0BA103F5-476C-47FD-BA7E-CEF394687619}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB463867-44EE-4EA6-98DE-8A1A8851AA74}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:J1048576"/>
     </sheetView>
   </sheetViews>
